--- a/chapter7/Chapter7-1a.xlsx
+++ b/chapter7/Chapter7-1a.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8ECC4E-5526-4FE3-80F1-86BA2BADE32F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="KNN-1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="211">
   <si>
     <t>Name</t>
   </si>
@@ -653,13 +652,19 @@
   </si>
   <si>
     <t>Daisy's likely reponse:</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Small</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -724,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -746,6 +751,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,7 +820,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -846,7 +855,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1023,30 +1032,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M1048576"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="12"/>
+    <col min="7" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1073,9 @@
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="11" t="s">
+        <v>209</v>
+      </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7" t="s">
         <v>1</v>
@@ -1074,7 +1087,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1090,6 +1103,10 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
+      <c r="F2" s="12">
+        <f>SQRT((B2-$H$2)^2+(C2-$I$2)^2+(D2-$J$2)^2)</f>
+        <v>130.64838307457157</v>
+      </c>
       <c r="G2" s="8" t="s">
         <v>205</v>
       </c>
@@ -1103,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1119,6 +1136,10 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F66" si="0">SQRT((B3-$H$2)^2+(C3-$I$2)^2+(D3-$J$2)^2)</f>
+        <v>12.884098726725126</v>
+      </c>
       <c r="G3" s="7" t="s">
         <v>207</v>
       </c>
@@ -1127,8 +1148,17 @@
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1144,14 +1174,33 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
+      <c r="F4" s="12">
+        <f t="shared" si="0"/>
+        <v>94.725920423081661</v>
+      </c>
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="10">
+        <f>IF(L4&gt;M4,$L$3,$M$3)</f>
+        <v>0</v>
+      </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1">
+        <f>SMALL($F2:$F201,G4)</f>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="L4" s="1">
+        <f>COUNTIFS($E$2:$E$201,L$3,$F$2:$F$201,"&lt;="&amp;$K4)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M9" si="1">COUNTIFS($E$2:$E$201,M$3,$F$2:$F$201,"&lt;="&amp;$K4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1167,14 +1216,33 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>98.742088290657492</v>
+      </c>
       <c r="G5" s="7">
         <v>3</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="10">
+        <f t="shared" ref="H5:H9" si="2">IF(L5&gt;M5,$L$3,$M$3)</f>
+        <v>0</v>
+      </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K9" si="3">SMALL($F3:$F202,G5)</f>
+        <v>8.1240384046359608</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" ref="L5:M9" si="4">COUNTIFS($E$2:$E$201,L$3,$F$2:$F$201,"&lt;="&amp;$K5)</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1190,14 +1258,33 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>4.1231056256176606</v>
+      </c>
       <c r="G6" s="7">
         <v>5</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <f t="shared" si="3"/>
+        <v>9.0553851381374173</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1213,14 +1300,33 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>9.0553851381374173</v>
+      </c>
       <c r="G7" s="7">
         <v>7</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
+        <v>11.489125293076057</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1236,14 +1342,33 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
+        <v>114.38968484964018</v>
+      </c>
       <c r="G8" s="7">
         <v>9</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <f t="shared" si="3"/>
+        <v>12.328828005937952</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1259,14 +1384,33 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
+        <v>114.54693361238441</v>
+      </c>
       <c r="G9" s="7">
         <v>11</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <f t="shared" si="3"/>
+        <v>14.798648586948742</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1282,8 +1426,12 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
+        <v>148.72121570240071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1299,10 +1447,14 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
+        <v>39.408120990476064</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1318,8 +1470,12 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
+        <v>51.234753829797995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1335,8 +1491,12 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>133.98880550254935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1352,8 +1512,12 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="12">
+        <f t="shared" si="0"/>
+        <v>34.249087579087416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1369,8 +1533,12 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
+        <v>100.50373127401788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1386,8 +1554,12 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="12">
+        <f t="shared" si="0"/>
+        <v>82.32253640407346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1403,8 +1575,12 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="12">
+        <f t="shared" si="0"/>
+        <v>129.50289572052048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1420,8 +1596,12 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1437,8 +1617,12 @@
       <c r="E19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="12">
+        <f t="shared" si="0"/>
+        <v>124.08061895396879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1454,8 +1638,12 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="12">
+        <f t="shared" si="0"/>
+        <v>128.01562404644207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1471,8 +1659,12 @@
       <c r="E21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="12">
+        <f t="shared" si="0"/>
+        <v>41.206795556073033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1680,12 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="12">
+        <f t="shared" si="0"/>
+        <v>32.171415884290823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1505,8 +1701,12 @@
       <c r="E23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="12">
+        <f t="shared" si="0"/>
+        <v>68.146900149603283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1522,8 +1722,12 @@
       <c r="E24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="12">
+        <f t="shared" si="0"/>
+        <v>45.453272709454048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1539,8 +1743,12 @@
       <c r="E25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="12">
+        <f t="shared" si="0"/>
+        <v>51.048996072400875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1556,8 +1764,12 @@
       <c r="E26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="12">
+        <f t="shared" si="0"/>
+        <v>114.07453703609758</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1573,8 +1785,12 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="12">
+        <f t="shared" si="0"/>
+        <v>27.092434368288131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1590,8 +1806,12 @@
       <c r="E28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="12">
+        <f t="shared" si="0"/>
+        <v>54.166410255803363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1607,8 +1827,12 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="12">
+        <f t="shared" si="0"/>
+        <v>43.116122274620196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1624,8 +1848,12 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="12">
+        <f t="shared" si="0"/>
+        <v>14.696938456699069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -1641,8 +1869,12 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="12">
+        <f t="shared" si="0"/>
+        <v>38.065732621348559</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1658,8 +1890,12 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="12">
+        <f t="shared" si="0"/>
+        <v>8.6023252670426267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -1675,8 +1911,12 @@
       <c r="E33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="12">
+        <f t="shared" si="0"/>
+        <v>33.136083051561783</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1692,8 +1932,12 @@
       <c r="E34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="12">
+        <f t="shared" si="0"/>
+        <v>8.1240384046359608</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1709,8 +1953,12 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="12">
+        <f t="shared" si="0"/>
+        <v>101.04949282406122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -1726,8 +1974,12 @@
       <c r="E36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="12">
+        <f t="shared" si="0"/>
+        <v>142.02816622064793</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -1743,8 +1995,12 @@
       <c r="E37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="12">
+        <f t="shared" si="0"/>
+        <v>52.583267300539625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -1760,8 +2016,12 @@
       <c r="E38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="12">
+        <f t="shared" si="0"/>
+        <v>23.108440016582687</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -1777,8 +2037,12 @@
       <c r="E39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="12">
+        <f t="shared" si="0"/>
+        <v>42.095130359698373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2058,12 @@
       <c r="E40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="12">
+        <f t="shared" si="0"/>
+        <v>106.3296760081587</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -1811,8 +2079,12 @@
       <c r="E41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="12">
+        <f t="shared" si="0"/>
+        <v>38.483762809787713</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -1828,8 +2100,12 @@
       <c r="E42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="12">
+        <f t="shared" si="0"/>
+        <v>45.287967496897011</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -1845,8 +2121,12 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="12">
+        <f t="shared" si="0"/>
+        <v>37.696153649941529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -1862,8 +2142,12 @@
       <c r="E44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="12">
+        <f t="shared" si="0"/>
+        <v>26.019223662515376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -1879,8 +2163,12 @@
       <c r="E45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="12">
+        <f t="shared" si="0"/>
+        <v>13.152946437965905</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -1896,8 +2184,12 @@
       <c r="E46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="12">
+        <f t="shared" si="0"/>
+        <v>107.13542831388691</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,8 +2205,12 @@
       <c r="E47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="12">
+        <f t="shared" si="0"/>
+        <v>25.396850198400589</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -1930,8 +2226,12 @@
       <c r="E48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="12">
+        <f t="shared" si="0"/>
+        <v>43.428101501216929</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -1947,8 +2247,12 @@
       <c r="E49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="12">
+        <f t="shared" si="0"/>
+        <v>46.270941205037097</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -1964,8 +2268,12 @@
       <c r="E50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="12">
+        <f t="shared" si="0"/>
+        <v>31.064449134018133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -1981,8 +2289,12 @@
       <c r="E51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="12">
+        <f t="shared" si="0"/>
+        <v>24.677925358506133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -1998,8 +2310,12 @@
       <c r="E52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="12">
+        <f t="shared" si="0"/>
+        <v>65.612498809296994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -2015,8 +2331,12 @@
       <c r="E53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="12">
+        <f t="shared" si="0"/>
+        <v>15.165750888103101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -2032,8 +2352,12 @@
       <c r="E54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="12">
+        <f t="shared" si="0"/>
+        <v>81.981705276238301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -2049,8 +2373,12 @@
       <c r="E55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="12">
+        <f t="shared" si="0"/>
+        <v>124.683599563054</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -2066,8 +2394,12 @@
       <c r="E56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="12">
+        <f t="shared" si="0"/>
+        <v>108.23123393919151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -2083,8 +2415,12 @@
       <c r="E57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="12">
+        <f t="shared" si="0"/>
+        <v>72.013887549555335</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -2100,8 +2436,12 @@
       <c r="E58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="12">
+        <f t="shared" si="0"/>
+        <v>108.18964830333815</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -2117,8 +2457,12 @@
       <c r="E59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="12">
+        <f t="shared" si="0"/>
+        <v>73.136858012906188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -2134,8 +2478,12 @@
       <c r="E60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="12">
+        <f t="shared" si="0"/>
+        <v>103.4842983258813</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
@@ -2151,8 +2499,12 @@
       <c r="E61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="12">
+        <f t="shared" si="0"/>
+        <v>46.733285782191693</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
@@ -2168,8 +2520,12 @@
       <c r="E62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="12">
+        <f t="shared" si="0"/>
+        <v>49.859803449271638</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -2185,8 +2541,12 @@
       <c r="E63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="12">
+        <f t="shared" si="0"/>
+        <v>96.922649571707439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -2202,8 +2562,12 @@
       <c r="E64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="12">
+        <f t="shared" si="0"/>
+        <v>94.413982015377357</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
@@ -2219,8 +2583,12 @@
       <c r="E65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="12">
+        <f t="shared" si="0"/>
+        <v>94.106322848148736</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -2236,8 +2604,12 @@
       <c r="E66" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="12">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
@@ -2253,8 +2625,12 @@
       <c r="E67" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="12">
+        <f t="shared" ref="F67:F130" si="5">SQRT((B67-$H$2)^2+(C67-$I$2)^2+(D67-$J$2)^2)</f>
+        <v>40.311288741492746</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -2270,8 +2646,12 @@
       <c r="E68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="12">
+        <f t="shared" si="5"/>
+        <v>108.47119433287347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
@@ -2287,8 +2667,12 @@
       <c r="E69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="12">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -2304,8 +2688,12 @@
       <c r="E70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="12">
+        <f t="shared" si="5"/>
+        <v>70.97182539571601</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -2321,8 +2709,12 @@
       <c r="E71" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="12">
+        <f t="shared" si="5"/>
+        <v>102.08329931972223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -2338,8 +2730,12 @@
       <c r="E72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="12">
+        <f t="shared" si="5"/>
+        <v>44.564559910314387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
@@ -2355,8 +2751,12 @@
       <c r="E73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="12">
+        <f t="shared" si="5"/>
+        <v>127.25564820470642</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -2372,8 +2772,12 @@
       <c r="E74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="12">
+        <f t="shared" si="5"/>
+        <v>81.492330927517344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -2389,8 +2793,12 @@
       <c r="E75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="12">
+        <f t="shared" si="5"/>
+        <v>14.798648586948742</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
@@ -2406,8 +2814,12 @@
       <c r="E76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="12">
+        <f t="shared" si="5"/>
+        <v>77.1621668954417</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
@@ -2423,8 +2835,12 @@
       <c r="E77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="12">
+        <f t="shared" si="5"/>
+        <v>28.722813232690143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
@@ -2440,8 +2856,12 @@
       <c r="E78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="12">
+        <f t="shared" si="5"/>
+        <v>11.489125293076057</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
@@ -2457,8 +2877,12 @@
       <c r="E79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="12">
+        <f t="shared" si="5"/>
+        <v>143.67672045254932</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
@@ -2474,8 +2898,12 @@
       <c r="E80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="12">
+        <f t="shared" si="5"/>
+        <v>133.57020625873122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
@@ -2491,8 +2919,12 @@
       <c r="E81" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="12">
+        <f t="shared" si="5"/>
+        <v>67.963225350184786</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -2508,8 +2940,12 @@
       <c r="E82" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="12">
+        <f t="shared" si="5"/>
+        <v>45.321076774498643</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
@@ -2525,8 +2961,12 @@
       <c r="E83" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="12">
+        <f t="shared" si="5"/>
+        <v>47.212286536451508</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
@@ -2542,8 +2982,12 @@
       <c r="E84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="12">
+        <f t="shared" si="5"/>
+        <v>88.532479915565446</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
@@ -2559,8 +3003,12 @@
       <c r="E85" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="12">
+        <f t="shared" si="5"/>
+        <v>45.967379738244816</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
@@ -2576,8 +3024,12 @@
       <c r="E86" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="12">
+        <f t="shared" si="5"/>
+        <v>86.827415025439976</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
@@ -2593,8 +3045,12 @@
       <c r="E87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="12">
+        <f t="shared" si="5"/>
+        <v>94.562148875752612</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
@@ -2610,8 +3066,12 @@
       <c r="E88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="12">
+        <f t="shared" si="5"/>
+        <v>39.064049969249218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
@@ -2627,8 +3087,12 @@
       <c r="E89" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="12">
+        <f t="shared" si="5"/>
+        <v>70.448562795844168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
@@ -2644,8 +3108,12 @@
       <c r="E90" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="12">
+        <f t="shared" si="5"/>
+        <v>19.235384061671343</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
@@ -2661,8 +3129,12 @@
       <c r="E91" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="12">
+        <f t="shared" si="5"/>
+        <v>102.20078277586722</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
@@ -2678,8 +3150,12 @@
       <c r="E92" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="12">
+        <f t="shared" si="5"/>
+        <v>48.114446894877631</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
@@ -2695,8 +3171,12 @@
       <c r="E93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="12">
+        <f t="shared" si="5"/>
+        <v>52.40229002629561</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
@@ -2712,8 +3192,12 @@
       <c r="E94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="12">
+        <f t="shared" si="5"/>
+        <v>78.441060676153526</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
@@ -2729,8 +3213,12 @@
       <c r="E95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="12">
+        <f t="shared" si="5"/>
+        <v>17.233687939614086</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>98</v>
       </c>
@@ -2746,8 +3234,12 @@
       <c r="E96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="12">
+        <f t="shared" si="5"/>
+        <v>132.06437824031127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
@@ -2763,8 +3255,12 @@
       <c r="E97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="12">
+        <f t="shared" si="5"/>
+        <v>17.058722109231979</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
         <v>100</v>
       </c>
@@ -2780,8 +3276,12 @@
       <c r="E98" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="12">
+        <f t="shared" si="5"/>
+        <v>45.221676218380054</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
@@ -2797,8 +3297,12 @@
       <c r="E99" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="12">
+        <f t="shared" si="5"/>
+        <v>76.347887986505555</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>102</v>
       </c>
@@ -2814,8 +3318,12 @@
       <c r="E100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="12">
+        <f t="shared" si="5"/>
+        <v>111.90174261377702</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>103</v>
       </c>
@@ -2831,8 +3339,12 @@
       <c r="E101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="12">
+        <f t="shared" si="5"/>
+        <v>47.138094997570704</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
@@ -2848,8 +3360,12 @@
       <c r="E102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="12">
+        <f t="shared" si="5"/>
+        <v>44.877611344633749</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
         <v>105</v>
       </c>
@@ -2865,8 +3381,12 @@
       <c r="E103" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="12">
+        <f t="shared" si="5"/>
+        <v>71.679843749829701</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>106</v>
       </c>
@@ -2882,8 +3402,12 @@
       <c r="E104" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="12">
+        <f t="shared" si="5"/>
+        <v>64.06246951218786</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
         <v>107</v>
       </c>
@@ -2899,8 +3423,12 @@
       <c r="E105" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="12">
+        <f t="shared" si="5"/>
+        <v>45.044422518220834</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
@@ -2916,8 +3444,12 @@
       <c r="E106" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="12">
+        <f t="shared" si="5"/>
+        <v>33.97057550292606</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
         <v>109</v>
       </c>
@@ -2933,8 +3465,12 @@
       <c r="E107" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="12">
+        <f t="shared" si="5"/>
+        <v>111.04503590885997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
@@ -2950,8 +3486,12 @@
       <c r="E108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="12">
+        <f t="shared" si="5"/>
+        <v>96.337946833010719</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
         <v>111</v>
       </c>
@@ -2967,8 +3507,12 @@
       <c r="E109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="12">
+        <f t="shared" si="5"/>
+        <v>133.84692749555367</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>112</v>
       </c>
@@ -2984,8 +3528,12 @@
       <c r="E110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="12">
+        <f t="shared" si="5"/>
+        <v>104.52272480183436</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
         <v>113</v>
       </c>
@@ -3001,8 +3549,12 @@
       <c r="E111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="12">
+        <f t="shared" si="5"/>
+        <v>78.8416133777081</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>114</v>
       </c>
@@ -3018,8 +3570,12 @@
       <c r="E112" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="12">
+        <f t="shared" si="5"/>
+        <v>94.053176448219972</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
         <v>115</v>
       </c>
@@ -3035,8 +3591,12 @@
       <c r="E113" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="12">
+        <f t="shared" si="5"/>
+        <v>63.788713735268246</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
         <v>116</v>
       </c>
@@ -3052,8 +3612,12 @@
       <c r="E114" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="12">
+        <f t="shared" si="5"/>
+        <v>137.2807342637706</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
         <v>117</v>
       </c>
@@ -3069,8 +3633,12 @@
       <c r="E115" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="12">
+        <f t="shared" si="5"/>
+        <v>72.201108024738787</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
         <v>118</v>
       </c>
@@ -3086,8 +3654,12 @@
       <c r="E116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="12">
+        <f t="shared" si="5"/>
+        <v>133.25539388707685</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
         <v>119</v>
       </c>
@@ -3103,8 +3675,12 @@
       <c r="E117" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="12">
+        <f t="shared" si="5"/>
+        <v>36.069377593742864</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
         <v>120</v>
       </c>
@@ -3120,8 +3696,12 @@
       <c r="E118" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="12">
+        <f t="shared" si="5"/>
+        <v>110.62097450302994</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
         <v>121</v>
       </c>
@@ -3137,8 +3717,12 @@
       <c r="E119" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="12">
+        <f t="shared" si="5"/>
+        <v>45.967379738244816</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
         <v>122</v>
       </c>
@@ -3154,8 +3738,12 @@
       <c r="E120" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="12">
+        <f t="shared" si="5"/>
+        <v>96.95359714832658</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
         <v>123</v>
       </c>
@@ -3171,8 +3759,12 @@
       <c r="E121" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="12">
+        <f t="shared" si="5"/>
+        <v>20.346989949375804</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
         <v>124</v>
       </c>
@@ -3188,8 +3780,12 @@
       <c r="E122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="12">
+        <f t="shared" si="5"/>
+        <v>134.19761547807025</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
         <v>125</v>
       </c>
@@ -3205,8 +3801,12 @@
       <c r="E123" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="12">
+        <f t="shared" si="5"/>
+        <v>39.849717690342551</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
         <v>126</v>
       </c>
@@ -3222,8 +3822,12 @@
       <c r="E124" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="12">
+        <f t="shared" si="5"/>
+        <v>61.302528495976411</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="1" t="s">
         <v>127</v>
       </c>
@@ -3239,8 +3843,12 @@
       <c r="E125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="12">
+        <f t="shared" si="5"/>
+        <v>46.270941205037097</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
@@ -3256,8 +3864,12 @@
       <c r="E126" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="12">
+        <f t="shared" si="5"/>
+        <v>44.305755833751441</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
@@ -3273,8 +3885,12 @@
       <c r="E127" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="12">
+        <f t="shared" si="5"/>
+        <v>20.493901531919196</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="1" t="s">
         <v>130</v>
       </c>
@@ -3290,8 +3906,12 @@
       <c r="E128" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="12">
+        <f t="shared" si="5"/>
+        <v>43.185645763378368</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
@@ -3307,8 +3927,12 @@
       <c r="E129" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="12">
+        <f t="shared" si="5"/>
+        <v>4.358898943540674</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
         <v>132</v>
       </c>
@@ -3324,8 +3948,12 @@
       <c r="E130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="12">
+        <f t="shared" si="5"/>
+        <v>48.887626246321268</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1" t="s">
         <v>133</v>
       </c>
@@ -3341,8 +3969,12 @@
       <c r="E131" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="12">
+        <f t="shared" ref="F131:F194" si="6">SQRT((B131-$H$2)^2+(C131-$I$2)^2+(D131-$J$2)^2)</f>
+        <v>143.84018909887459</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1" t="s">
         <v>134</v>
       </c>
@@ -3358,8 +3990,12 @@
       <c r="E132" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="12">
+        <f t="shared" si="6"/>
+        <v>41.448763552125413</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="1" t="s">
         <v>135</v>
       </c>
@@ -3375,8 +4011,12 @@
       <c r="E133" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="12">
+        <f t="shared" si="6"/>
+        <v>34.073450074801642</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="1" t="s">
         <v>136</v>
       </c>
@@ -3392,8 +4032,12 @@
       <c r="E134" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="12">
+        <f t="shared" si="6"/>
+        <v>76.524505878835967</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
         <v>137</v>
       </c>
@@ -3409,8 +4053,12 @@
       <c r="E135" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="12">
+        <f t="shared" si="6"/>
+        <v>67.594378464484748</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
         <v>138</v>
       </c>
@@ -3426,8 +4074,12 @@
       <c r="E136" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="12">
+        <f t="shared" si="6"/>
+        <v>91.087869664407023</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
         <v>139</v>
       </c>
@@ -3443,8 +4095,12 @@
       <c r="E137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="12">
+        <f t="shared" si="6"/>
+        <v>110.49886877249016</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
         <v>140</v>
       </c>
@@ -3460,8 +4116,12 @@
       <c r="E138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="12">
+        <f t="shared" si="6"/>
+        <v>120.28715642162301</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
@@ -3477,8 +4137,12 @@
       <c r="E139" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="12">
+        <f t="shared" si="6"/>
+        <v>12.328828005937952</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
@@ -3494,8 +4158,12 @@
       <c r="E140" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="12">
+        <f t="shared" si="6"/>
+        <v>52.716221412388805</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
@@ -3511,8 +4179,12 @@
       <c r="E141" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="12">
+        <f t="shared" si="6"/>
+        <v>31.827660925679098</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
         <v>144</v>
       </c>
@@ -3528,8 +4200,12 @@
       <c r="E142" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="12">
+        <f t="shared" si="6"/>
+        <v>116.3915804515086</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
         <v>145</v>
       </c>
@@ -3545,8 +4221,12 @@
       <c r="E143" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="12">
+        <f t="shared" si="6"/>
+        <v>27.221315177632398</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="1" t="s">
         <v>146</v>
       </c>
@@ -3562,8 +4242,12 @@
       <c r="E144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="12">
+        <f t="shared" si="6"/>
+        <v>103.0824912388132</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="1" t="s">
         <v>147</v>
       </c>
@@ -3579,8 +4263,12 @@
       <c r="E145" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" s="12">
+        <f t="shared" si="6"/>
+        <v>18.411952639521967</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="1" t="s">
         <v>148</v>
       </c>
@@ -3596,8 +4284,12 @@
       <c r="E146" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="12">
+        <f t="shared" si="6"/>
+        <v>126.0634760745554</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
         <v>149</v>
       </c>
@@ -3613,8 +4305,12 @@
       <c r="E147" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="12">
+        <f t="shared" si="6"/>
+        <v>33.030289129827487</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
         <v>150</v>
       </c>
@@ -3630,8 +4326,12 @@
       <c r="E148" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="12">
+        <f t="shared" si="6"/>
+        <v>146.92174787961108</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
         <v>151</v>
       </c>
@@ -3647,8 +4347,12 @@
       <c r="E149" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="12">
+        <f t="shared" si="6"/>
+        <v>32.619012860600179</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
         <v>152</v>
       </c>
@@ -3664,8 +4368,12 @@
       <c r="E150" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150" s="12">
+        <f t="shared" si="6"/>
+        <v>23.622023622035432</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
         <v>153</v>
       </c>
@@ -3681,8 +4389,12 @@
       <c r="E151" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" s="12">
+        <f t="shared" si="6"/>
+        <v>42.532340636273474</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="1" t="s">
         <v>154</v>
       </c>
@@ -3698,8 +4410,12 @@
       <c r="E152" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" s="12">
+        <f t="shared" si="6"/>
+        <v>93.1933474020544</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="1" t="s">
         <v>155</v>
       </c>
@@ -3715,8 +4431,12 @@
       <c r="E153" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153" s="12">
+        <f t="shared" si="6"/>
+        <v>95.262794416288244</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="1" t="s">
         <v>156</v>
       </c>
@@ -3732,8 +4452,12 @@
       <c r="E154" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154" s="12">
+        <f t="shared" si="6"/>
+        <v>131.25928538583472</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="1" t="s">
         <v>157</v>
       </c>
@@ -3749,8 +4473,12 @@
       <c r="E155" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155" s="12">
+        <f t="shared" si="6"/>
+        <v>37.536648758246919</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="1" t="s">
         <v>158</v>
       </c>
@@ -3766,8 +4494,12 @@
       <c r="E156" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156" s="12">
+        <f t="shared" si="6"/>
+        <v>74.659225819720362</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
         <v>159</v>
       </c>
@@ -3783,8 +4515,12 @@
       <c r="E157" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157" s="12">
+        <f t="shared" si="6"/>
+        <v>46.529560496527367</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
         <v>160</v>
       </c>
@@ -3800,8 +4536,12 @@
       <c r="E158" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158" s="12">
+        <f t="shared" si="6"/>
+        <v>143.9930553880985</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
@@ -3817,8 +4557,12 @@
       <c r="E159" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159" s="12">
+        <f t="shared" si="6"/>
+        <v>36.373066958946424</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="1" t="s">
         <v>162</v>
       </c>
@@ -3834,8 +4578,12 @@
       <c r="E160" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160" s="12">
+        <f t="shared" si="6"/>
+        <v>37.749172176353746</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
         <v>163</v>
       </c>
@@ -3851,8 +4599,12 @@
       <c r="E161" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161" s="12">
+        <f t="shared" si="6"/>
+        <v>133.1277581873893</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="1" t="s">
         <v>164</v>
       </c>
@@ -3868,8 +4620,12 @@
       <c r="E162" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162" s="12">
+        <f t="shared" si="6"/>
+        <v>34.365680554879162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
         <v>165</v>
       </c>
@@ -3885,8 +4641,12 @@
       <c r="E163" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163" s="12">
+        <f t="shared" si="6"/>
+        <v>78.108898340714035</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="1" t="s">
         <v>166</v>
       </c>
@@ -3902,8 +4662,12 @@
       <c r="E164" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164" s="12">
+        <f t="shared" si="6"/>
+        <v>29.597297173897484</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="1" t="s">
         <v>167</v>
       </c>
@@ -3919,8 +4683,12 @@
       <c r="E165" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165" s="12">
+        <f t="shared" si="6"/>
+        <v>119.23086848631104</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="1" t="s">
         <v>168</v>
       </c>
@@ -3936,8 +4704,12 @@
       <c r="E166" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166" s="12">
+        <f t="shared" si="6"/>
+        <v>49.989998999799951</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="1" t="s">
         <v>169</v>
       </c>
@@ -3953,8 +4725,12 @@
       <c r="E167" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167" s="12">
+        <f t="shared" si="6"/>
+        <v>62.681735776859277</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="1" t="s">
         <v>170</v>
       </c>
@@ -3970,8 +4746,12 @@
       <c r="E168" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168" s="12">
+        <f t="shared" si="6"/>
+        <v>38.794329482541649</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="1" t="s">
         <v>171</v>
       </c>
@@ -3987,8 +4767,12 @@
       <c r="E169" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" s="12">
+        <f t="shared" si="6"/>
+        <v>41.060930335295616</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="1" t="s">
         <v>172</v>
       </c>
@@ -4004,8 +4788,12 @@
       <c r="E170" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170" s="12">
+        <f t="shared" si="6"/>
+        <v>57.384666941614292</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="1" t="s">
         <v>173</v>
       </c>
@@ -4021,8 +4809,12 @@
       <c r="E171" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" s="12">
+        <f t="shared" si="6"/>
+        <v>131.64725595317208</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="1" t="s">
         <v>174</v>
       </c>
@@ -4038,8 +4830,12 @@
       <c r="E172" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172" s="12">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="1" t="s">
         <v>175</v>
       </c>
@@ -4055,8 +4851,12 @@
       <c r="E173" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173" s="12">
+        <f t="shared" si="6"/>
+        <v>37.669616403674723</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="1" t="s">
         <v>176</v>
       </c>
@@ -4072,8 +4872,12 @@
       <c r="E174" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174" s="12">
+        <f t="shared" si="6"/>
+        <v>21.236760581595302</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="1" t="s">
         <v>177</v>
       </c>
@@ -4089,8 +4893,12 @@
       <c r="E175" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175" s="12">
+        <f t="shared" si="6"/>
+        <v>39.025632602175712</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="1" t="s">
         <v>178</v>
       </c>
@@ -4106,8 +4914,12 @@
       <c r="E176" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" s="12">
+        <f t="shared" si="6"/>
+        <v>37.336309405188942</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="1" t="s">
         <v>179</v>
       </c>
@@ -4123,8 +4935,12 @@
       <c r="E177" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177" s="12">
+        <f t="shared" si="6"/>
+        <v>51.166395221864128</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="1" t="s">
         <v>180</v>
       </c>
@@ -4140,8 +4956,12 @@
       <c r="E178" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178" s="12">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="1" t="s">
         <v>181</v>
       </c>
@@ -4157,8 +4977,12 @@
       <c r="E179" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179" s="12">
+        <f t="shared" si="6"/>
+        <v>96.71090941563935</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="1" t="s">
         <v>182</v>
       </c>
@@ -4174,8 +4998,12 @@
       <c r="E180" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180" s="12">
+        <f t="shared" si="6"/>
+        <v>35.482389998420345</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
         <v>183</v>
       </c>
@@ -4191,8 +5019,12 @@
       <c r="E181" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" s="12">
+        <f t="shared" si="6"/>
+        <v>42.684891940826091</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="1" t="s">
         <v>184</v>
       </c>
@@ -4208,8 +5040,12 @@
       <c r="E182" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182" s="12">
+        <f t="shared" si="6"/>
+        <v>113.28724553099524</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="1" t="s">
         <v>185</v>
       </c>
@@ -4225,8 +5061,12 @@
       <c r="E183" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183" s="12">
+        <f t="shared" si="6"/>
+        <v>80.268300094121841</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="1" t="s">
         <v>186</v>
       </c>
@@ -4242,8 +5082,12 @@
       <c r="E184" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184" s="12">
+        <f t="shared" si="6"/>
+        <v>137.82234942127494</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="1" t="s">
         <v>187</v>
       </c>
@@ -4259,8 +5103,12 @@
       <c r="E185" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185" s="12">
+        <f t="shared" si="6"/>
+        <v>107.060730429042</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="1" t="s">
         <v>188</v>
       </c>
@@ -4276,8 +5124,12 @@
       <c r="E186" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186" s="12">
+        <f t="shared" si="6"/>
+        <v>56.311632901204348</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="1" t="s">
         <v>189</v>
       </c>
@@ -4293,8 +5145,12 @@
       <c r="E187" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187" s="12">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="1" t="s">
         <v>190</v>
       </c>
@@ -4310,8 +5166,12 @@
       <c r="E188" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188" s="12">
+        <f t="shared" si="6"/>
+        <v>60.21627686929839</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="1" t="s">
         <v>191</v>
       </c>
@@ -4327,8 +5187,12 @@
       <c r="E189" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189" s="12">
+        <f t="shared" si="6"/>
+        <v>140.03570973148243</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="1" t="s">
         <v>192</v>
       </c>
@@ -4344,8 +5208,12 @@
       <c r="E190" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="12">
+        <f t="shared" si="6"/>
+        <v>40.049968789001575</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="1" t="s">
         <v>193</v>
       </c>
@@ -4361,8 +5229,12 @@
       <c r="E191" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="12">
+        <f t="shared" si="6"/>
+        <v>117.11532777565881</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="1" t="s">
         <v>194</v>
       </c>
@@ -4378,8 +5250,12 @@
       <c r="E192" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" s="12">
+        <f t="shared" si="6"/>
+        <v>29.13760456866693</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="1" t="s">
         <v>195</v>
       </c>
@@ -4395,8 +5271,12 @@
       <c r="E193" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" s="12">
+        <f t="shared" si="6"/>
+        <v>49.446941260304463</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="1" t="s">
         <v>196</v>
       </c>
@@ -4412,8 +5292,12 @@
       <c r="E194" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" s="12">
+        <f t="shared" si="6"/>
+        <v>82.304313374209016</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="1" t="s">
         <v>197</v>
       </c>
@@ -4429,8 +5313,12 @@
       <c r="E195" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195" s="12">
+        <f t="shared" ref="F195:F201" si="7">SQRT((B195-$H$2)^2+(C195-$I$2)^2+(D195-$J$2)^2)</f>
+        <v>122.43365550370535</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="1" t="s">
         <v>198</v>
       </c>
@@ -4446,8 +5334,12 @@
       <c r="E196" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196" s="12">
+        <f t="shared" si="7"/>
+        <v>49.203658400570177</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="1" t="s">
         <v>199</v>
       </c>
@@ -4463,8 +5355,12 @@
       <c r="E197" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197" s="12">
+        <f t="shared" si="7"/>
+        <v>109.8453458276681</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="1" t="s">
         <v>200</v>
       </c>
@@ -4480,8 +5376,12 @@
       <c r="E198" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198" s="12">
+        <f t="shared" si="7"/>
+        <v>11.916375287812984</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="1" t="s">
         <v>201</v>
       </c>
@@ -4497,8 +5397,12 @@
       <c r="E199" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199" s="12">
+        <f t="shared" si="7"/>
+        <v>78.574805122252769</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="1" t="s">
         <v>202</v>
       </c>
@@ -4514,8 +5418,12 @@
       <c r="E200" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200" s="12">
+        <f t="shared" si="7"/>
+        <v>37.12142238654117</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="1" t="s">
         <v>203</v>
       </c>
@@ -4530,6 +5438,10 @@
       </c>
       <c r="E201" s="1">
         <v>0</v>
+      </c>
+      <c r="F201" s="12">
+        <f t="shared" si="7"/>
+        <v>37.054014627297811</v>
       </c>
     </row>
   </sheetData>
